--- a/APIFinal/templates/various-form.xlsx
+++ b/APIFinal/templates/various-form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\API\APIFinal\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC911DD1-6BB8-4A87-8D67-B56B8BCA4D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76BBA2-5F5B-497A-8B20-8E7BC1011A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAR" sheetId="14" r:id="rId1"/>
@@ -341,7 +341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -406,13 +406,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
@@ -471,6 +464,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -987,7 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,296 +1059,365 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1359,9 +1428,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1371,74 +1437,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4306,7 +4306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4322,33 +4322,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1">
       <c r="A8" s="27" t="s">
@@ -4376,469 +4376,469 @@
     <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="48"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="48"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="48"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="48"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="48"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="48"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="48"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="48"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="47"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="48"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="47"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="48"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" s="47"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="48"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="47"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="48"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="47"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="48"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" ht="16.5">
-      <c r="A23" s="47"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="48"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="16.5">
-      <c r="A24" s="47"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="48"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="16.5">
-      <c r="A25" s="47"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="48"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" ht="16.5">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="52"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="1:7" ht="16.5">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="56">
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="55">
         <f>SUM(G9:G25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="57" t="s">
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62" t="s">
+      <c r="C29" s="62"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62" t="s">
+      <c r="C30" s="62"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="60" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64" t="s">
+      <c r="C33" s="62"/>
+      <c r="D33" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66" t="s">
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="65" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66" t="s">
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="64" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="66" t="s">
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="64"/>
-      <c r="B36" s="97" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66" t="s">
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="11.1" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" ht="16.5">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="70" t="s">
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
     </row>
     <row r="39" spans="1:7" ht="16.5">
-      <c r="A39" s="73"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="74"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7" ht="16.5">
-      <c r="A40" s="75"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="74"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="73"/>
     </row>
     <row r="41" spans="1:7" ht="16.5">
-      <c r="A41" s="75"/>
-      <c r="B41" s="98" t="s">
+      <c r="A41" s="74"/>
+      <c r="B41" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="101" t="s">
+      <c r="C41" s="73"/>
+      <c r="D41" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="104"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
-      <c r="A42" s="75"/>
-      <c r="B42" s="37" t="s">
+      <c r="A42" s="74"/>
+      <c r="B42" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75" t="s">
+      <c r="C42" s="73"/>
+      <c r="D42" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="74"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="73"/>
     </row>
     <row r="43" spans="1:7" ht="16.5">
-      <c r="A43" s="49"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
     </row>
     <row r="44" spans="1:7" ht="16.5">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="73" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="74"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="73"/>
     </row>
     <row r="45" spans="1:7" ht="16.5">
-      <c r="A45" s="75"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="74"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="73"/>
     </row>
     <row r="46" spans="1:7" ht="16.5">
-      <c r="A46" s="75"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="74"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7" ht="16.5">
-      <c r="A47" s="75"/>
-      <c r="B47" s="37" t="s">
+      <c r="A47" s="74"/>
+      <c r="B47" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="104" t="s">
+      <c r="C47" s="73"/>
+      <c r="D47" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="107"/>
     </row>
     <row r="48" spans="1:7" ht="16.5">
-      <c r="A48" s="75"/>
-      <c r="B48" s="37" t="s">
+      <c r="A48" s="74"/>
+      <c r="B48" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="108"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="100"/>
     </row>
     <row r="49" spans="1:7" ht="16.5">
-      <c r="A49" s="75"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="74"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="73"/>
     </row>
     <row r="50" spans="1:7" ht="16.5">
-      <c r="A50" s="49"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="52"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
     </row>
     <row r="51" spans="1:7" ht="16.5">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:7" ht="16.5">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4876,1243 +4876,1270 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
     </row>
     <row r="5" spans="1:10" ht="18">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
     </row>
     <row r="6" spans="1:10" ht="18">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="124" t="s">
+      <c r="D11" s="128"/>
+      <c r="E11" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="122" t="s">
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="122" t="s">
+      <c r="J11" s="113" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="119"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="79" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="81"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="87" t="s">
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="88"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="87"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="89"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="91"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="89"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="91"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="90"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="89"/>
-      <c r="B39" s="116" t="s">
+      <c r="A39" s="88"/>
+      <c r="B39" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="91"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="89"/>
-      <c r="B40" s="117" t="s">
+      <c r="A40" s="88"/>
+      <c r="B40" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="117" t="s">
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="91"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="89"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="91"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="89"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="91"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="90"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="89"/>
-      <c r="B43" s="116" t="s">
+      <c r="A43" s="88"/>
+      <c r="B43" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="91"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="89"/>
-      <c r="B44" s="117" t="s">
+      <c r="A44" s="88"/>
+      <c r="B44" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="117" t="s">
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="91"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="89"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="91"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="89"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="91"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="90"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="89"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="91"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="89"/>
-      <c r="B48" s="117" t="s">
+      <c r="A48" s="88"/>
+      <c r="B48" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="117" t="s">
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="117"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="91"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="92"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="91"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="90"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="90"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
+      <c r="A52" s="89"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="90"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="90"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="90"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="90"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="90"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="90"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="90"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="89"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="90"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="90"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="90"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="90"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="90"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="90"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="90"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="90"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="90"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="90"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="90"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="90"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="90"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="90"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="90"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="89"/>
+      <c r="J71" s="89"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="90"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="89"/>
+      <c r="J72" s="89"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="90"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="89"/>
+      <c r="J73" s="89"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="90"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="89"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="90"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
+      <c r="A75" s="89"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="89"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="90"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="90"/>
-      <c r="I76" s="90"/>
-      <c r="J76" s="90"/>
+      <c r="A76" s="89"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="89"/>
+      <c r="J76" s="89"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="90"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="90"/>
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
+      <c r="A77" s="89"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="89"/>
+      <c r="I77" s="89"/>
+      <c r="J77" s="89"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="90"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="89"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="90"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
+      <c r="A79" s="89"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="89"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="89"/>
+      <c r="J79" s="89"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="90"/>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
+      <c r="A80" s="89"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="89"/>
+      <c r="J80" s="89"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="90"/>
-      <c r="B81" s="90"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
-      <c r="H81" s="90"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
+      <c r="A81" s="89"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="89"/>
+      <c r="G81" s="89"/>
+      <c r="H81" s="89"/>
+      <c r="I81" s="89"/>
+      <c r="J81" s="89"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="90"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="90"/>
-      <c r="F82" s="90"/>
-      <c r="G82" s="90"/>
-      <c r="H82" s="90"/>
-      <c r="I82" s="90"/>
-      <c r="J82" s="90"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="89"/>
+      <c r="H82" s="89"/>
+      <c r="I82" s="89"/>
+      <c r="J82" s="89"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="90"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
+      <c r="A83" s="89"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="89"/>
+      <c r="H83" s="89"/>
+      <c r="I83" s="89"/>
+      <c r="J83" s="89"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="90"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="90"/>
-      <c r="F84" s="90"/>
-      <c r="G84" s="90"/>
-      <c r="H84" s="90"/>
-      <c r="I84" s="90"/>
-      <c r="J84" s="90"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="89"/>
+      <c r="H84" s="89"/>
+      <c r="I84" s="89"/>
+      <c r="J84" s="89"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="90"/>
-      <c r="B85" s="90"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="90"/>
-      <c r="G85" s="90"/>
-      <c r="H85" s="90"/>
-      <c r="I85" s="90"/>
-      <c r="J85" s="90"/>
+      <c r="A85" s="89"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
+      <c r="G85" s="89"/>
+      <c r="H85" s="89"/>
+      <c r="I85" s="89"/>
+      <c r="J85" s="89"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="90"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="90"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="89"/>
+      <c r="I86" s="89"/>
+      <c r="J86" s="89"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="90"/>
-      <c r="B87" s="90"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="90"/>
-      <c r="H87" s="90"/>
-      <c r="I87" s="90"/>
-      <c r="J87" s="90"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="89"/>
+      <c r="H87" s="89"/>
+      <c r="I87" s="89"/>
+      <c r="J87" s="89"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="90"/>
-      <c r="B88" s="90"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
+      <c r="I88" s="89"/>
+      <c r="J88" s="89"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="90"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
+      <c r="A89" s="89"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
+      <c r="G89" s="89"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="89"/>
+      <c r="J89" s="89"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="90"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="90"/>
-      <c r="F90" s="90"/>
-      <c r="G90" s="90"/>
-      <c r="H90" s="90"/>
-      <c r="I90" s="90"/>
-      <c r="J90" s="90"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="89"/>
+      <c r="J90" s="89"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="90"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
+      <c r="A91" s="89"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="89"/>
+      <c r="J91" s="89"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="90"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="90"/>
-      <c r="F92" s="90"/>
-      <c r="G92" s="90"/>
-      <c r="H92" s="90"/>
-      <c r="I92" s="90"/>
-      <c r="J92" s="90"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="89"/>
+      <c r="G92" s="89"/>
+      <c r="H92" s="89"/>
+      <c r="I92" s="89"/>
+      <c r="J92" s="89"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="90"/>
-      <c r="B93" s="90"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="90"/>
-      <c r="H93" s="90"/>
-      <c r="I93" s="90"/>
-      <c r="J93" s="90"/>
+      <c r="A93" s="89"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="89"/>
+      <c r="I93" s="89"/>
+      <c r="J93" s="89"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="90"/>
-      <c r="B94" s="90"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="90"/>
-      <c r="H94" s="90"/>
-      <c r="I94" s="90"/>
-      <c r="J94" s="90"/>
+      <c r="A94" s="89"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="89"/>
+      <c r="G94" s="89"/>
+      <c r="H94" s="89"/>
+      <c r="I94" s="89"/>
+      <c r="J94" s="89"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="90"/>
-      <c r="B95" s="90"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="90"/>
-      <c r="E95" s="90"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="90"/>
-      <c r="H95" s="90"/>
-      <c r="I95" s="90"/>
-      <c r="J95" s="90"/>
+      <c r="A95" s="89"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="89"/>
+      <c r="G95" s="89"/>
+      <c r="H95" s="89"/>
+      <c r="I95" s="89"/>
+      <c r="J95" s="89"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="90"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="90"/>
-      <c r="E96" s="90"/>
-      <c r="F96" s="90"/>
-      <c r="G96" s="90"/>
-      <c r="H96" s="90"/>
-      <c r="I96" s="90"/>
-      <c r="J96" s="90"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
+      <c r="I96" s="89"/>
+      <c r="J96" s="89"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="90"/>
-      <c r="B97" s="90"/>
-      <c r="C97" s="90"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="90"/>
-      <c r="F97" s="90"/>
-      <c r="G97" s="90"/>
-      <c r="H97" s="90"/>
-      <c r="I97" s="90"/>
-      <c r="J97" s="90"/>
+      <c r="A97" s="89"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="89"/>
+      <c r="G97" s="89"/>
+      <c r="H97" s="89"/>
+      <c r="I97" s="89"/>
+      <c r="J97" s="89"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="90"/>
-      <c r="B98" s="90"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="90"/>
-      <c r="E98" s="90"/>
-      <c r="F98" s="90"/>
-      <c r="G98" s="90"/>
-      <c r="H98" s="90"/>
-      <c r="I98" s="90"/>
-      <c r="J98" s="90"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="89"/>
+      <c r="H98" s="89"/>
+      <c r="I98" s="89"/>
+      <c r="J98" s="89"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="90"/>
-      <c r="B99" s="90"/>
-      <c r="C99" s="90"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="90"/>
-      <c r="J99" s="90"/>
+      <c r="A99" s="89"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="89"/>
+      <c r="G99" s="89"/>
+      <c r="H99" s="89"/>
+      <c r="I99" s="89"/>
+      <c r="J99" s="89"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="90"/>
-      <c r="B100" s="90"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="90"/>
-      <c r="E100" s="90"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="90"/>
-      <c r="H100" s="90"/>
-      <c r="I100" s="90"/>
-      <c r="J100" s="90"/>
+      <c r="A100" s="89"/>
+      <c r="B100" s="89"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="89"/>
+      <c r="I100" s="89"/>
+      <c r="J100" s="89"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="90"/>
-      <c r="B101" s="90"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="90"/>
-      <c r="H101" s="90"/>
-      <c r="I101" s="90"/>
-      <c r="J101" s="90"/>
+      <c r="A101" s="89"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="89"/>
+      <c r="I101" s="89"/>
+      <c r="J101" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="A11:A12"/>
@@ -6129,33 +6156,6 @@
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -6166,8 +6166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6182,37 +6182,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
     </row>
     <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="26"/>
@@ -6243,394 +6243,395 @@
     <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="45"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="45"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="45"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="47"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="48"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="48"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="47"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="48"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="48"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="48"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="47"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="48"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="47"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="48"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" s="47"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="48"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="47"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="48"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="52"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7" ht="16.5">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="56">
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="55">
         <f>SUM(G9:G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66" t="s">
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66" t="s">
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
     </row>
     <row r="31" spans="1:7" ht="11.1" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="1:7" ht="16.5">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="70" t="s">
+      <c r="B32" s="70"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
     </row>
     <row r="33" spans="1:7" ht="16.5">
-      <c r="A33" s="73"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="74"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="73"/>
     </row>
     <row r="34" spans="1:7" ht="16.5">
-      <c r="A34" s="75"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="74"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="73"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="104"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="101" t="s">
+      <c r="A35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
     </row>
     <row r="36" spans="1:7" ht="16.5">
-      <c r="A36" s="107"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="107" t="s">
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="108"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="100"/>
     </row>
     <row r="37" spans="1:7" ht="16.5">
-      <c r="A37" s="49"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
     </row>
     <row r="38" spans="1:7" ht="16.5">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="73" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="74"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="73"/>
     </row>
     <row r="39" spans="1:7" ht="16.5">
-      <c r="A39" s="75"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="74"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7" ht="16.5">
-      <c r="A40" s="130"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="74"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="73"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="130"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="104" t="s">
+      <c r="A41" s="129"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="107"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
-      <c r="A42" s="75"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="107" t="s">
+      <c r="A42" s="74"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="108"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="100"/>
     </row>
     <row r="43" spans="1:7" ht="16.5">
-      <c r="A43" s="49"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
     </row>
     <row r="44" spans="1:7" ht="16.5">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7" ht="16.5">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="A40:C41"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6658,10 +6659,10 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="132"/>
+      <c r="I1" s="155"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
@@ -6675,17 +6676,17 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="2"/>
@@ -6699,15 +6700,15 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
@@ -6718,11 +6719,11 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
@@ -6842,309 +6843,309 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="157" t="s">
+      <c r="C16" s="139"/>
+      <c r="D16" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="153" t="s">
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="155" t="s">
+      <c r="I16" s="136" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="154"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="156"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="137"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="137"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="10"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="140"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="133"/>
       <c r="H19" s="10"/>
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="140"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="10"/>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="140"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="133"/>
       <c r="H21" s="10"/>
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="140"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="133"/>
       <c r="H22" s="10"/>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="140"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133"/>
       <c r="H23" s="10"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="140"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="133"/>
       <c r="H24" s="10"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="140"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
       <c r="H25" s="10"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="140"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="10"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="140"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="133"/>
       <c r="H27" s="10"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="140"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="133"/>
       <c r="H28" s="10"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="140"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
       <c r="H29" s="10"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="140"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="133"/>
       <c r="H30" s="10"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="140"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="133"/>
       <c r="H31" s="10"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="140"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="10"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="10"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="140"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
       <c r="H33" s="10"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="10"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="140"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="133"/>
       <c r="H34" s="10"/>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="10"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="140"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="133"/>
       <c r="H35" s="10"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="10"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="140"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="133"/>
       <c r="H36" s="10"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="11"/>
-      <c r="B37" s="139"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="140"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="133"/>
       <c r="H37" s="11"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="11"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="140"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="133"/>
       <c r="H38" s="11"/>
       <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="140"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="133"/>
       <c r="H39" s="11"/>
       <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="11"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="140"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="133"/>
       <c r="H40" s="11"/>
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="11"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="140"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="133"/>
       <c r="H41" s="11"/>
       <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="12"/>
-      <c r="B42" s="142"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="143"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="153"/>
       <c r="H42" s="12"/>
       <c r="I42" s="25"/>
     </row>
@@ -7162,79 +7163,79 @@
       <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="145" t="s">
+      <c r="A44" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="147"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="150"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="145" t="s">
+      <c r="A45" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="147"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="150"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="145" t="s">
+      <c r="A46" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="147"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="150"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="145" t="s">
+      <c r="A47" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="146"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="147"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="150"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="145" t="s">
+      <c r="A48" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="146"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="147"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="150"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="148"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="148"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="143"/>
       <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9">
@@ -7250,10 +7251,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6"/>
-      <c r="B51" s="135" t="s">
+      <c r="B51" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="135"/>
+      <c r="C51" s="144"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
@@ -7269,53 +7270,53 @@
       <c r="A52" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="149"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="149"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
       <c r="E52" s="1"/>
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="151"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="147"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="152"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="152"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
       <c r="E53" s="1"/>
       <c r="F53" s="19"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="140"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="133"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="152"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="152"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
       <c r="E54" s="1"/>
       <c r="F54" s="19"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="140"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="133"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="152"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
       <c r="E55" s="1"/>
       <c r="F55" s="19"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="141"/>
-      <c r="I55" s="140"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="133"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
@@ -7330,6 +7331,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="B55:D55"/>
@@ -7346,64 +7405,6 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/APIFinal/templates/various-form.xlsx
+++ b/APIFinal/templates/various-form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\API\APIFinal\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76BBA2-5F5B-497A-8B20-8E7BC1011A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81AF93-6624-4E91-B8E3-3FB40D1AD7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAR" sheetId="14" r:id="rId1"/>
@@ -341,9 +341,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +471,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -987,11 +993,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,7 +1095,7 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
@@ -1197,16 +1203,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
@@ -1248,6 +1254,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1290,9 +1299,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1329,6 +1335,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1437,8 +1446,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2968,7 +2977,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
+      <xdr:colOff>46808</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>208280</xdr:rowOff>
     </xdr:to>
@@ -4322,26 +4331,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="26" t="s">
@@ -4720,12 +4729,12 @@
         <v>32</v>
       </c>
       <c r="C41" s="73"/>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="105"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="74"/>
@@ -4736,8 +4745,8 @@
       <c r="D42" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
       <c r="G42" s="73"/>
     </row>
     <row r="43" spans="1:7" ht="16.5">
@@ -4786,12 +4795,12 @@
         <v>38</v>
       </c>
       <c r="C47" s="73"/>
-      <c r="D47" s="105" t="s">
+      <c r="D47" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="108"/>
     </row>
     <row r="48" spans="1:7" ht="16.5">
       <c r="A48" s="74"/>
@@ -4799,10 +4808,10 @@
         <v>39</v>
       </c>
       <c r="C48" s="73"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="100"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="101"/>
     </row>
     <row r="49" spans="1:7" ht="16.5">
       <c r="A49" s="74"/>
@@ -4857,77 +4866,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:J101"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="1:10" ht="18">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
     </row>
     <row r="6" spans="1:10" ht="18">
       <c r="A6" s="75"/>
@@ -4984,16 +4997,16 @@
       <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="115" t="s">
         <v>48</v>
       </c>
@@ -5008,8 +5021,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="110"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="78" t="s">
         <v>51</v>
       </c>
@@ -5040,10 +5053,10 @@
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="80"/>
       <c r="J14" s="80"/>
     </row>
@@ -5355,18 +5368,18 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="88"/>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="90"/>
       <c r="F40" s="89"/>
-      <c r="G40" s="108" t="s">
+      <c r="G40" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
       <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:10">
@@ -5409,18 +5422,18 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="88"/>
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
       <c r="E44" s="90"/>
       <c r="F44" s="89"/>
-      <c r="G44" s="108" t="s">
+      <c r="G44" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
       <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10">
@@ -5461,18 +5474,18 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="88"/>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
       <c r="E48" s="90"/>
       <c r="F48" s="89"/>
-      <c r="G48" s="108" t="s">
+      <c r="G48" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10">
@@ -6157,8 +6170,9 @@
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="B39:D39"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.29921259842519687" footer="0.29921259842519687"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6166,7 +6180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -6182,37 +6196,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="26"/>
@@ -6243,7 +6257,7 @@
     <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="161"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
@@ -6506,26 +6520,26 @@
       <c r="G34" s="73"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="102" t="s">
+      <c r="A35" s="106"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="108"/>
     </row>
     <row r="36" spans="1:7" ht="16.5">
-      <c r="A36" s="98"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="98" t="s">
+      <c r="A36" s="99"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="101"/>
     </row>
     <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="48"/>
@@ -6559,35 +6573,35 @@
       <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7" ht="16.5">
-      <c r="A40" s="129"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="130"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="131"/>
       <c r="D40" s="74"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
       <c r="G40" s="73"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="129"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="105" t="s">
+      <c r="A41" s="130"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="108"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="74"/>
       <c r="B42" s="36"/>
       <c r="C42" s="73"/>
-      <c r="D42" s="98" t="s">
+      <c r="D42" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="101"/>
     </row>
     <row r="43" spans="1:7" ht="16.5">
       <c r="A43" s="48"/>
@@ -6659,10 +6673,10 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="155"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
@@ -6676,17 +6690,17 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="2"/>
@@ -6700,15 +6714,15 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
@@ -6719,11 +6733,11 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
@@ -6843,309 +6857,309 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="138" t="s">
+      <c r="C16" s="140"/>
+      <c r="D16" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="134" t="s">
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="136" t="s">
+      <c r="I16" s="137" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="135"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="137"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="138"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="159"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="160"/>
       <c r="H18" s="10"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="133"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="134"/>
       <c r="H19" s="10"/>
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="133"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="134"/>
       <c r="H20" s="10"/>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="133"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="134"/>
       <c r="H21" s="10"/>
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="133"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="134"/>
       <c r="H22" s="10"/>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="133"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="134"/>
       <c r="H23" s="10"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="133"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="134"/>
       <c r="H24" s="10"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="133"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="10"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="133"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="134"/>
       <c r="H26" s="10"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="133"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="134"/>
       <c r="H27" s="10"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="133"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="134"/>
       <c r="H28" s="10"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="133"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="134"/>
       <c r="H29" s="10"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="133"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="134"/>
       <c r="H30" s="10"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="133"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="134"/>
       <c r="H31" s="10"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="133"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="134"/>
       <c r="H32" s="10"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="10"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="133"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="134"/>
       <c r="H33" s="10"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="10"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="133"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="134"/>
       <c r="H34" s="10"/>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="10"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="133"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="134"/>
       <c r="H35" s="10"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="10"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="133"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="134"/>
       <c r="H36" s="10"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="11"/>
-      <c r="B37" s="151"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="133"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="134"/>
       <c r="H37" s="11"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="11"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="133"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="134"/>
       <c r="H38" s="11"/>
       <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="133"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="134"/>
       <c r="H39" s="11"/>
       <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="11"/>
-      <c r="B40" s="151"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="133"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="134"/>
       <c r="H40" s="11"/>
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="11"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="133"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="134"/>
       <c r="H41" s="11"/>
       <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="12"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="153"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="154"/>
       <c r="H42" s="12"/>
       <c r="I42" s="25"/>
     </row>
@@ -7163,79 +7177,79 @@
       <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="148" t="s">
+      <c r="A44" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="150"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="151"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="150"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="151"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="149"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="150"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="151"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="148" t="s">
+      <c r="A47" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="149"/>
-      <c r="C47" s="149"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="150"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="151"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="148" t="s">
+      <c r="A48" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="149"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="150"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="151"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="144"/>
       <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9">
@@ -7251,10 +7265,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6"/>
-      <c r="B51" s="144" t="s">
+      <c r="B51" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="144"/>
+      <c r="C51" s="145"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
@@ -7270,53 +7284,53 @@
       <c r="A52" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="145"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
       <c r="E52" s="1"/>
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="148"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="131"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="132"/>
       <c r="E53" s="1"/>
       <c r="F53" s="19"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="134"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="131"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
       <c r="E54" s="1"/>
       <c r="F54" s="19"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="134"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="131"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
       <c r="E55" s="1"/>
       <c r="F55" s="19"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="134"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>

--- a/APIFinal/templates/various-form.xlsx
+++ b/APIFinal/templates/various-form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\API\APIFinal\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C81AF93-6624-4E91-B8E3-3FB40D1AD7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F7AD8-32AD-41D1-851E-A43A99B59CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAR" sheetId="14" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>PROPERTY ACKNOWLEDGEMENT RECEIPT</t>
   </si>
@@ -138,9 +136,6 @@
   </si>
   <si>
     <t xml:space="preserve">              GERALD G. SANCHEZ</t>
-  </si>
-  <si>
-    <t>_________________________________</t>
   </si>
   <si>
     <t xml:space="preserve">             Administrative Officer I</t>
@@ -321,9 +316,6 @@
     <t>Approved by:</t>
   </si>
   <si>
-    <t>Released/Issued by:</t>
-  </si>
-  <si>
     <t>Signature :</t>
   </si>
   <si>
@@ -334,6 +326,9 @@
   </si>
   <si>
     <t>Date :</t>
+  </si>
+  <si>
+    <t>Origin:</t>
   </si>
 </sst>
 </file>
@@ -341,9 +336,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +472,39 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -993,11 +1021,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,7 +1123,7 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
@@ -1203,16 +1231,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
@@ -1272,9 +1300,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1287,6 +1312,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,11 +1354,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1323,48 +1375,66 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1395,9 +1465,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1407,47 +1474,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1471,23 +1538,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>296545</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12915</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>534035</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17858</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangles 1">
+        <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2D6955-F196-FA53-9A6F-7BCA2DBF08C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,25 +1562,23 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="296545" y="6065520"/>
-          <a:ext cx="229235" cy="144780"/>
+          <a:off x="3583983" y="9673145"/>
+          <a:ext cx="786316" cy="310726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -1527,106 +1592,8 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -1637,23 +1604,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>539115</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>864578</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>184197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangles 2">
+        <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16804722-0692-4C83-B0ED-588E9397FF47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,25 +1628,23 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301625" y="5880100"/>
-          <a:ext cx="224155" cy="144780"/>
+          <a:off x="6033264" y="9784190"/>
+          <a:ext cx="846718" cy="313334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -1693,1268 +1658,8 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>534670</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangles 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="297180" y="5684520"/>
-          <a:ext cx="228600" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>534670</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangles 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="297180" y="5501640"/>
-          <a:ext cx="228600" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>43180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>539115</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangles 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="301625" y="6253480"/>
-          <a:ext cx="224155" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>783590</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangles 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4218940" y="5697220"/>
-          <a:ext cx="237490" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>783590</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangles 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4218940" y="5514340"/>
-          <a:ext cx="237490" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>703580</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>33020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>941070</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangles 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5184140" y="5694680"/>
-          <a:ext cx="237490" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>703580</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>941070</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangles 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5184140" y="5511800"/>
-          <a:ext cx="237490" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -3010,1046 +1715,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>296545</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>534035</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangles 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="296545" y="5334000"/>
-          <a:ext cx="229235" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>539115</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangles 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="301625" y="5148580"/>
-          <a:ext cx="224155" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>534670</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangles 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="297180" y="4953000"/>
-          <a:ext cx="228600" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>534670</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangles 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="297180" y="4770120"/>
-          <a:ext cx="228600" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>43180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>539115</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangles 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="301625" y="5521960"/>
-          <a:ext cx="224155" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>147320</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="609600" y="2369820"/>
-          <a:ext cx="147320" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:alpha val="100000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>147320</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="609600" y="2562225"/>
-          <a:ext cx="147320" cy="154305"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:alpha val="100000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>29210</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2467610" y="2369820"/>
-          <a:ext cx="147320" cy="153035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:alpha val="100000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>29210</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2467610" y="2552700"/>
-          <a:ext cx="147320" cy="153035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:alpha val="100000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4315,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4572,27 +2237,27 @@
       <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="60"/>
+      <c r="A29" s="162"/>
       <c r="B29" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="62"/>
-      <c r="D29" s="60"/>
+      <c r="D29" s="164"/>
       <c r="E29" s="61" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="163"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="60"/>
+      <c r="A30" s="162"/>
       <c r="B30" s="61" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="62"/>
-      <c r="D30" s="60"/>
+      <c r="D30" s="165"/>
       <c r="E30" s="61" t="s">
         <v>17</v>
       </c>
@@ -4602,7 +2267,7 @@
       <c r="G30" s="62"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="60"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="61" t="s">
         <v>19</v>
       </c>
@@ -4613,7 +2278,7 @@
       <c r="G31" s="62"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="60"/>
+      <c r="A32" s="162"/>
       <c r="B32" s="61" t="s">
         <v>20</v>
       </c>
@@ -4626,7 +2291,7 @@
       <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="60"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="61" t="s">
         <v>22</v>
       </c>
@@ -4658,7 +2323,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
+      <c r="C35" s="166"/>
       <c r="D35" s="63" t="s">
         <v>27</v>
       </c>
@@ -4729,21 +2394,19 @@
         <v>32</v>
       </c>
       <c r="C41" s="73"/>
-      <c r="D41" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="105"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="G41" s="104"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="74"/>
       <c r="B42" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" s="100"/>
       <c r="F42" s="100"/>
@@ -4760,12 +2423,12 @@
     </row>
     <row r="44" spans="1:7" ht="16.5">
       <c r="A44" s="72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="73"/>
       <c r="D44" s="72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
@@ -4792,26 +2455,24 @@
     <row r="47" spans="1:7" ht="16.5">
       <c r="A47" s="74"/>
       <c r="B47" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="73"/>
-      <c r="D47" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="108"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="107"/>
     </row>
     <row r="48" spans="1:7" ht="16.5">
       <c r="A48" s="74"/>
       <c r="B48" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="73"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="101"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="170"/>
     </row>
     <row r="49" spans="1:7" ht="16.5">
       <c r="A49" s="74"/>
@@ -4871,8 +2532,8 @@
   </sheetPr>
   <dimension ref="A2:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4889,58 +2550,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+    </row>
+    <row r="5" spans="1:10" ht="18">
+      <c r="A5" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-    </row>
-    <row r="5" spans="1:10" ht="18">
-      <c r="A5" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" ht="18">
       <c r="A6" s="75"/>
@@ -4956,7 +2617,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
@@ -4970,7 +2631,7 @@
     </row>
     <row r="9" spans="1:10" ht="26.1" customHeight="1">
       <c r="A9" s="76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
@@ -4979,7 +2640,7 @@
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
       <c r="H9" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
@@ -4997,54 +2658,54 @@
       <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="C11" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="D11" s="110"/>
+      <c r="E11" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="115" t="s">
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="113" t="s">
+      <c r="J11" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="113" t="s">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="120"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="78" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="111"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="78" t="s">
+      <c r="D12" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
       <c r="I13" s="80"/>
       <c r="J13" s="80"/>
     </row>
@@ -5053,10 +2714,10 @@
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
       <c r="I14" s="80"/>
       <c r="J14" s="80"/>
     </row>
@@ -5065,10 +2726,10 @@
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
       <c r="I15" s="80"/>
       <c r="J15" s="80"/>
     </row>
@@ -5077,10 +2738,10 @@
       <c r="B16" s="80"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="80"/>
       <c r="J16" s="80"/>
     </row>
@@ -5089,10 +2750,10 @@
       <c r="B17" s="80"/>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
     </row>
@@ -5101,10 +2762,10 @@
       <c r="B18" s="80"/>
       <c r="C18" s="81"/>
       <c r="D18" s="82"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
     </row>
@@ -5113,10 +2774,10 @@
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
       <c r="I19" s="80"/>
       <c r="J19" s="80"/>
     </row>
@@ -5125,10 +2786,10 @@
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
     </row>
@@ -5137,10 +2798,10 @@
       <c r="B21" s="80"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
     </row>
@@ -5149,10 +2810,10 @@
       <c r="B22" s="80"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
     </row>
@@ -5161,10 +2822,10 @@
       <c r="B23" s="80"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="80"/>
       <c r="J23" s="80"/>
     </row>
@@ -5173,10 +2834,10 @@
       <c r="B24" s="80"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="80"/>
       <c r="J24" s="80"/>
     </row>
@@ -5185,10 +2846,10 @@
       <c r="B25" s="80"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
       <c r="I25" s="80"/>
       <c r="J25" s="80"/>
     </row>
@@ -5197,10 +2858,10 @@
       <c r="B26" s="80"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
       <c r="I26" s="80"/>
       <c r="J26" s="80"/>
     </row>
@@ -5209,10 +2870,10 @@
       <c r="B27" s="80"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
       <c r="I27" s="80"/>
       <c r="J27" s="80"/>
     </row>
@@ -5221,10 +2882,10 @@
       <c r="B28" s="80"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
       <c r="I28" s="80"/>
       <c r="J28" s="80"/>
     </row>
@@ -5233,10 +2894,10 @@
       <c r="B29" s="80"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
       <c r="I29" s="80"/>
       <c r="J29" s="80"/>
     </row>
@@ -5245,10 +2906,10 @@
       <c r="B30" s="80"/>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="80"/>
       <c r="J30" s="80"/>
     </row>
@@ -5257,10 +2918,10 @@
       <c r="B31" s="80"/>
       <c r="C31" s="81"/>
       <c r="D31" s="81"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
       <c r="I31" s="80"/>
       <c r="J31" s="80"/>
     </row>
@@ -5269,10 +2930,10 @@
       <c r="B32" s="80"/>
       <c r="C32" s="81"/>
       <c r="D32" s="81"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
       <c r="I32" s="80"/>
       <c r="J32" s="80"/>
     </row>
@@ -5281,10 +2942,10 @@
       <c r="B33" s="80"/>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
       <c r="I33" s="80"/>
       <c r="J33" s="80"/>
     </row>
@@ -5293,10 +2954,10 @@
       <c r="B34" s="80"/>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="80"/>
       <c r="J34" s="80"/>
     </row>
@@ -5305,23 +2966,23 @@
       <c r="B35" s="83"/>
       <c r="C35" s="84"/>
       <c r="D35" s="84"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
       <c r="I35" s="83"/>
       <c r="J35" s="83"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="86"/>
       <c r="C36" s="86"/>
       <c r="D36" s="86"/>
       <c r="E36" s="87"/>
       <c r="F36" s="86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="86"/>
       <c r="H36" s="86"/>
@@ -5354,32 +3015,32 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="88"/>
-      <c r="B39" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="B39" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="90"/>
       <c r="F39" s="89"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
       <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="88"/>
-      <c r="B40" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
+      <c r="B40" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="90"/>
       <c r="F40" s="89"/>
-      <c r="G40" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
+      <c r="G40" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
       <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:10">
@@ -5408,32 +3069,32 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="88"/>
-      <c r="B43" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="B43" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="90"/>
       <c r="F43" s="89"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="88"/>
-      <c r="B44" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
+      <c r="B44" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
       <c r="E44" s="90"/>
       <c r="F44" s="89"/>
-      <c r="G44" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
+      <c r="G44" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
       <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10">
@@ -5474,18 +3135,18 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="88"/>
-      <c r="B48" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
+      <c r="B48" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="90"/>
       <c r="F48" s="89"/>
-      <c r="G48" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
+      <c r="G48" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10">
@@ -6126,33 +3787,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="A11:A12"/>
@@ -6169,6 +3803,33 @@
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.29921259842519687" footer="0.29921259842519687"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -6181,7 +3842,7 @@
   <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6197,7 +3858,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
@@ -6219,7 +3880,7 @@
     </row>
     <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="100"/>
       <c r="C5" s="100"/>
@@ -6401,29 +4062,27 @@
       <c r="B24" s="57"/>
       <c r="C24" s="58"/>
       <c r="D24" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
       <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="60"/>
+      <c r="A25" s="172"/>
       <c r="B25" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="62"/>
       <c r="D25" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
-      <c r="G25" s="65" t="s">
-        <v>24</v>
-      </c>
+      <c r="G25" s="174"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="60"/>
+      <c r="A26" s="172"/>
       <c r="B26" s="61" t="s">
         <v>16</v>
       </c>
@@ -6433,12 +4092,10 @@
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
-      <c r="G26" s="65" t="s">
-        <v>24</v>
-      </c>
+      <c r="G26" s="65"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="60"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="61" t="s">
         <v>19</v>
       </c>
@@ -6449,7 +4106,7 @@
       <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="60"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="61" t="s">
         <v>20</v>
       </c>
@@ -6460,7 +4117,7 @@
       <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="60"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="61" t="s">
         <v>22</v>
       </c>
@@ -6490,7 +4147,7 @@
     </row>
     <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="70"/>
       <c r="C32" s="71"/>
@@ -6520,22 +4177,22 @@
       <c r="G34" s="73"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="106"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="108"/>
+        <v>54</v>
+      </c>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
     </row>
     <row r="36" spans="1:7" ht="16.5">
       <c r="A36" s="99"/>
       <c r="B36" s="100"/>
       <c r="C36" s="101"/>
       <c r="D36" s="99" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="100"/>
       <c r="F36" s="100"/>
@@ -6552,12 +4209,12 @@
     </row>
     <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="73"/>
       <c r="D38" s="72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
@@ -6574,7 +4231,7 @@
     </row>
     <row r="40" spans="1:7" ht="16.5">
       <c r="A40" s="130"/>
-      <c r="B40" s="127"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="131"/>
       <c r="D40" s="74"/>
       <c r="E40" s="36"/>
@@ -6583,21 +4240,21 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="130"/>
-      <c r="B41" s="127"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="131"/>
-      <c r="D41" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="108"/>
+      <c r="D41" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="107"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="74"/>
       <c r="B42" s="36"/>
       <c r="C42" s="73"/>
       <c r="D42" s="99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="100"/>
       <c r="F42" s="100"/>
@@ -6632,20 +4289,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="A40:C41"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="A40:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6653,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6673,10 +4329,10 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="156" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="156"/>
+      <c r="H1" s="132" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
@@ -6690,17 +4346,17 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="157" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
+      <c r="A3" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="2"/>
@@ -6714,30 +4370,30 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="145" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
+      <c r="G6" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
@@ -6752,7 +4408,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6761,13 +4417,13 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6776,7 +4432,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="21"/>
     </row>
@@ -6793,7 +4449,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
@@ -6817,14 +4473,14 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6832,14 +4488,14 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="175"/>
       <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6857,315 +4513,315 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="C16" s="154"/>
+      <c r="D16" s="153" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="149" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="137" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="136"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="138"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="152"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="160"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="137"/>
       <c r="H18" s="10"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="134"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="10"/>
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="134"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="10"/>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="134"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="10"/>
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="134"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="140"/>
       <c r="H22" s="10"/>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="140"/>
       <c r="H23" s="10"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="140"/>
       <c r="H24" s="10"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="140"/>
       <c r="H25" s="10"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="140"/>
       <c r="H26" s="10"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="140"/>
       <c r="H27" s="10"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="134"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="10"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="134"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="140"/>
       <c r="H29" s="10"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="10"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="140"/>
       <c r="H31" s="10"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="134"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="140"/>
       <c r="H32" s="10"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="10"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="134"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="140"/>
       <c r="H33" s="10"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="10"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="134"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="140"/>
       <c r="H34" s="10"/>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="10"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="134"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="140"/>
       <c r="H35" s="10"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="10"/>
-      <c r="B36" s="152"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="134"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="140"/>
       <c r="H36" s="10"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="11"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="134"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="140"/>
       <c r="H37" s="11"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="11"/>
-      <c r="B38" s="152"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="134"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="140"/>
       <c r="H38" s="11"/>
       <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="134"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="140"/>
       <c r="H39" s="11"/>
       <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="11"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="134"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="140"/>
       <c r="H40" s="11"/>
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="11"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="134"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="140"/>
       <c r="H41" s="11"/>
       <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="12"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="154"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="146"/>
       <c r="H42" s="12"/>
       <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="5"/>
@@ -7177,79 +4833,79 @@
       <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="151"/>
+      <c r="A44" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="144"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="150"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="151"/>
+      <c r="A45" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="144"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="150"/>
-      <c r="C46" s="150"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="151"/>
+      <c r="A46" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="144"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="150"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="151"/>
+      <c r="A47" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="144"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="150"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="151"/>
+      <c r="A48" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="144"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
       <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9">
@@ -7265,72 +4921,72 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6"/>
-      <c r="B51" s="145" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="145"/>
+      <c r="B51" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="135"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="146"/>
-      <c r="C52" s="146"/>
-      <c r="D52" s="146"/>
+        <v>86</v>
+      </c>
+      <c r="B52" s="159"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="159"/>
       <c r="E52" s="1"/>
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="148"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="161"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="132"/>
-      <c r="C53" s="132"/>
-      <c r="D53" s="132"/>
+        <v>87</v>
+      </c>
+      <c r="B53" s="148"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
       <c r="E53" s="1"/>
       <c r="F53" s="19"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="134"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="140"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="132"/>
-      <c r="C54" s="132"/>
-      <c r="D54" s="132"/>
+        <v>88</v>
+      </c>
+      <c r="B54" s="148"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
       <c r="E54" s="1"/>
       <c r="F54" s="19"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="134"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="140"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="132"/>
-      <c r="C55" s="132"/>
-      <c r="D55" s="132"/>
+        <v>89</v>
+      </c>
+      <c r="B55" s="148"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
       <c r="E55" s="1"/>
       <c r="F55" s="19"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="134"/>
+      <c r="H55" s="141"/>
+      <c r="I55" s="140"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
@@ -7345,64 +5001,6 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="B55:D55"/>
@@ -7419,8 +5017,65 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/APIFinal/templates/various-form.xlsx
+++ b/APIFinal/templates/various-form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\API\APIFinal\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F7AD8-32AD-41D1-851E-A43A99B59CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950EDFDC-4381-4F3A-B042-AB28FB4C4CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1016,6 +1016,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1025,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,9 +1068,6 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1285,105 +1293,222 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1393,9 +1518,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1405,116 +1527,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1996,519 +2010,519 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="47"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="47"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="47"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="47"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="47"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="47"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="46"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="47"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="46"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="47"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="46"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="47"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" s="46"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="46"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="47"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="46"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" ht="16.5">
-      <c r="A23" s="46"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="47"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="16.5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="47"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7" ht="16.5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="47"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:7" ht="16.5">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="51"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" ht="16.5">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="55">
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="54">
         <f>SUM(G9:G25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="56" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="162"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="99"/>
+      <c r="B29" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="61" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="163"/>
+      <c r="G29" s="100"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="162"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="99"/>
+      <c r="B30" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="61" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="62"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="162"/>
-      <c r="B31" s="61" t="s">
+      <c r="A31" s="99"/>
+      <c r="B31" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="162"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="99"/>
+      <c r="B32" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="59" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="162"/>
-      <c r="B33" s="61" t="s">
+      <c r="A33" s="99"/>
+      <c r="B33" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="65" t="s">
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="60"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63" t="s">
+      <c r="A34" s="59"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65" t="s">
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="63" t="s">
+      <c r="B35" s="63"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65" t="s">
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="63"/>
-      <c r="B36" s="96" t="s">
+      <c r="A36" s="62"/>
+      <c r="B36" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65" t="s">
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="11.1" customHeight="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="16.5">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="69" t="s">
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="70"/>
     </row>
     <row r="39" spans="1:7" ht="16.5">
-      <c r="A39" s="72"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="73"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="72"/>
     </row>
     <row r="40" spans="1:7" ht="16.5">
-      <c r="A40" s="74"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="73"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="72"/>
     </row>
     <row r="41" spans="1:7" ht="16.5">
-      <c r="A41" s="74"/>
-      <c r="B41" s="97" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="104"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="115"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
-      <c r="A42" s="74"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="73"/>
+      <c r="B42" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="74" t="s">
+      <c r="C42" s="72"/>
+      <c r="D42" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="73"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="72"/>
     </row>
     <row r="43" spans="1:7" ht="16.5">
-      <c r="A43" s="48"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="1:7" ht="16.5">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="72" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="73"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="72"/>
     </row>
     <row r="45" spans="1:7" ht="16.5">
-      <c r="A45" s="74"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="73"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="72"/>
     </row>
     <row r="46" spans="1:7" ht="16.5">
-      <c r="A46" s="74"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="73"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="72"/>
     </row>
     <row r="47" spans="1:7" ht="16.5">
-      <c r="A47" s="74"/>
-      <c r="B47" s="36" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="107"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="118"/>
     </row>
     <row r="48" spans="1:7" ht="16.5">
-      <c r="A48" s="74"/>
-      <c r="B48" s="36" t="s">
+      <c r="A48" s="73"/>
+      <c r="B48" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="170"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="110"/>
     </row>
     <row r="49" spans="1:7" ht="16.5">
-      <c r="A49" s="74"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="73"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="72"/>
     </row>
     <row r="50" spans="1:7" ht="16.5">
-      <c r="A50" s="48"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="51"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" ht="16.5">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
     </row>
     <row r="52" spans="1:7" ht="16.5">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2550,1243 +2564,1270 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
     </row>
     <row r="5" spans="1:10" ht="18">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
     </row>
     <row r="6" spans="1:10" ht="18">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="123" t="s">
+      <c r="D11" s="140"/>
+      <c r="E11" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="111" t="s">
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="111" t="s">
+      <c r="J11" s="124" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="120"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="78" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="86" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="87"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="86"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="88"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="90"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="88"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="90"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="89"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="88"/>
-      <c r="B39" s="117" t="s">
+      <c r="A39" s="87"/>
+      <c r="B39" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="90"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="89"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="88"/>
-      <c r="B40" s="118" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="118" t="s">
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="90"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="89"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="88"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="90"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="89"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="88"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="90"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="89"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="88"/>
-      <c r="B43" s="117" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="90"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="89"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="88"/>
-      <c r="B44" s="118" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="118" t="s">
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="90"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="89"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="88"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="90"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="89"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="88"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="90"/>
+      <c r="A46" s="87"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="89"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="88"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="90"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="89"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="88"/>
-      <c r="B48" s="118" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="118" t="s">
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="90"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="119"/>
+      <c r="J48" s="89"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="91"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="90"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="89"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="89"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="89"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="89"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="89"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="89"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="89"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
+      <c r="A59" s="88"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="89"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="89"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="89"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="89"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="89"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="89"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="89"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="89"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="89"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="89"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="89"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="89"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="89"/>
-      <c r="J71" s="89"/>
+      <c r="A71" s="88"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="89"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="89"/>
+      <c r="A72" s="88"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="89"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="89"/>
+      <c r="A73" s="88"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="89"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="89"/>
+      <c r="A74" s="88"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="88"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="89"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="89"/>
+      <c r="A75" s="88"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="89"/>
-      <c r="B76" s="89"/>
-      <c r="C76" s="89"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="89"/>
-      <c r="I76" s="89"/>
-      <c r="J76" s="89"/>
+      <c r="A76" s="88"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="89"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
+      <c r="A77" s="88"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="89"/>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
+      <c r="A78" s="88"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="89"/>
-      <c r="B79" s="89"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="89"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="89"/>
-      <c r="G79" s="89"/>
-      <c r="H79" s="89"/>
-      <c r="I79" s="89"/>
-      <c r="J79" s="89"/>
+      <c r="A79" s="88"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="88"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="89"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="89"/>
-      <c r="F80" s="89"/>
-      <c r="G80" s="89"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="89"/>
-      <c r="J80" s="89"/>
+      <c r="A80" s="88"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="89"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="89"/>
-      <c r="E81" s="89"/>
-      <c r="F81" s="89"/>
-      <c r="G81" s="89"/>
-      <c r="H81" s="89"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="89"/>
+      <c r="A81" s="88"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="88"/>
+      <c r="J81" s="88"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="89"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="89"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="89"/>
-      <c r="H82" s="89"/>
-      <c r="I82" s="89"/>
-      <c r="J82" s="89"/>
+      <c r="A82" s="88"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="88"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="88"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="89"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="89"/>
-      <c r="H83" s="89"/>
-      <c r="I83" s="89"/>
-      <c r="J83" s="89"/>
+      <c r="A83" s="88"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="89"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="89"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="89"/>
+      <c r="A84" s="88"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="88"/>
+      <c r="H84" s="88"/>
+      <c r="I84" s="88"/>
+      <c r="J84" s="88"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="89"/>
-      <c r="B85" s="89"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="89"/>
-      <c r="F85" s="89"/>
-      <c r="G85" s="89"/>
-      <c r="H85" s="89"/>
-      <c r="I85" s="89"/>
-      <c r="J85" s="89"/>
+      <c r="A85" s="88"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="89"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="89"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="89"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89"/>
-      <c r="J86" s="89"/>
+      <c r="A86" s="88"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="88"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="88"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="88"/>
+      <c r="J86" s="88"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="89"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="89"/>
-      <c r="G87" s="89"/>
-      <c r="H87" s="89"/>
-      <c r="I87" s="89"/>
-      <c r="J87" s="89"/>
+      <c r="A87" s="88"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="88"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="88"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="88"/>
+      <c r="J87" s="88"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="89"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="89"/>
-      <c r="J88" s="89"/>
+      <c r="A88" s="88"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="89"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="89"/>
-      <c r="G89" s="89"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="89"/>
-      <c r="J89" s="89"/>
+      <c r="A89" s="88"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="89"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
+      <c r="A90" s="88"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="89"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
+      <c r="A91" s="88"/>
+      <c r="B91" s="88"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="88"/>
+      <c r="J91" s="88"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="89"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="89"/>
-      <c r="F92" s="89"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89"/>
-      <c r="I92" s="89"/>
-      <c r="J92" s="89"/>
+      <c r="A92" s="88"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="88"/>
+      <c r="J92" s="88"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="89"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="89"/>
-      <c r="I93" s="89"/>
-      <c r="J93" s="89"/>
+      <c r="A93" s="88"/>
+      <c r="B93" s="88"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="88"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="89"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="89"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="89"/>
-      <c r="G94" s="89"/>
-      <c r="H94" s="89"/>
-      <c r="I94" s="89"/>
-      <c r="J94" s="89"/>
+      <c r="A94" s="88"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="88"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="89"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="89"/>
-      <c r="G95" s="89"/>
-      <c r="H95" s="89"/>
-      <c r="I95" s="89"/>
-      <c r="J95" s="89"/>
+      <c r="A95" s="88"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="89"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="89"/>
-      <c r="H96" s="89"/>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
+      <c r="A96" s="88"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
+      <c r="H96" s="88"/>
+      <c r="I96" s="88"/>
+      <c r="J96" s="88"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="89"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="89"/>
-      <c r="G97" s="89"/>
-      <c r="H97" s="89"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="89"/>
+      <c r="A97" s="88"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="89"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="89"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="89"/>
-      <c r="G98" s="89"/>
-      <c r="H98" s="89"/>
-      <c r="I98" s="89"/>
-      <c r="J98" s="89"/>
+      <c r="A98" s="88"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="88"/>
+      <c r="E98" s="88"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="88"/>
+      <c r="H98" s="88"/>
+      <c r="I98" s="88"/>
+      <c r="J98" s="88"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="89"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="89"/>
-      <c r="E99" s="89"/>
-      <c r="F99" s="89"/>
-      <c r="G99" s="89"/>
-      <c r="H99" s="89"/>
-      <c r="I99" s="89"/>
-      <c r="J99" s="89"/>
+      <c r="A99" s="88"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="88"/>
+      <c r="D99" s="88"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="88"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="88"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="89"/>
-      <c r="B100" s="89"/>
-      <c r="C100" s="89"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="89"/>
-      <c r="F100" s="89"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
+      <c r="A100" s="88"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="88"/>
+      <c r="E100" s="88"/>
+      <c r="F100" s="88"/>
+      <c r="G100" s="88"/>
+      <c r="H100" s="88"/>
+      <c r="I100" s="88"/>
+      <c r="J100" s="88"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="89"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="89"/>
-      <c r="H101" s="89"/>
-      <c r="I101" s="89"/>
-      <c r="J101" s="89"/>
+      <c r="A101" s="88"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="A11:A12"/>
@@ -3803,33 +3844,6 @@
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.29921259842519687" footer="0.29921259842519687"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -3857,448 +3871,448 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="E6" s="26"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="44"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="44"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="46"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="47"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="46"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="47"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="46"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="47"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="16.5">
-      <c r="A16" s="46"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="46"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="47"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="46"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="47"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="46"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="47"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" s="46"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="46"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="47"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="51"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7" ht="16.5">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="55">
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="54">
         <f>SUM(G9:G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="172"/>
-      <c r="B25" s="61" t="s">
+      <c r="A25" s="104"/>
+      <c r="B25" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="174"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="106"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="172"/>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="104"/>
+      <c r="B26" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63" t="s">
+      <c r="C26" s="61"/>
+      <c r="D26" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="173"/>
-      <c r="B27" s="61" t="s">
+      <c r="A27" s="105"/>
+      <c r="B27" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="173"/>
-      <c r="B28" s="61" t="s">
+      <c r="A28" s="105"/>
+      <c r="B28" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="173"/>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="105"/>
+      <c r="B29" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="65"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:7" ht="11.1" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:7" ht="16.5">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="69" t="s">
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
     </row>
     <row r="33" spans="1:7" ht="16.5">
-      <c r="A33" s="72"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="73"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="72"/>
     </row>
     <row r="34" spans="1:7" ht="16.5">
-      <c r="A34" s="74"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="73"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="72"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="103" t="s">
+      <c r="A35" s="143"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="107"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="118"/>
     </row>
     <row r="36" spans="1:7" ht="16.5">
-      <c r="A36" s="99"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="99" t="s">
+      <c r="A36" s="141"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="101"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="142"/>
     </row>
     <row r="37" spans="1:7" ht="16.5">
-      <c r="A37" s="48"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
     </row>
     <row r="38" spans="1:7" ht="16.5">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="72" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="73"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="72"/>
     </row>
     <row r="39" spans="1:7" ht="16.5">
-      <c r="A39" s="74"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="73"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="72"/>
     </row>
     <row r="40" spans="1:7" ht="16.5">
-      <c r="A40" s="130"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="73"/>
+      <c r="A40" s="144"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="72"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="130"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="105" t="s">
+      <c r="A41" s="144"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="107"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="118"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
-      <c r="A42" s="74"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="99" t="s">
+      <c r="A42" s="73"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="101"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="142"/>
     </row>
     <row r="43" spans="1:7" ht="16.5">
-      <c r="A43" s="48"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="1:7" ht="16.5">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
     </row>
     <row r="45" spans="1:7" ht="16.5">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="A40:C41"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4309,8 +4323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4329,10 +4343,10 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="132"/>
+      <c r="I1" s="170"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
@@ -4346,17 +4360,17 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="2"/>
@@ -4370,15 +4384,15 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
@@ -4389,11 +4403,11 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
@@ -4419,7 +4433,7 @@
       <c r="H8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="176"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
@@ -4434,7 +4448,7 @@
       <c r="H9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7"/>
@@ -4445,7 +4459,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
@@ -4458,7 +4472,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6"/>
@@ -4469,37 +4483,37 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6"/>
-      <c r="B13" s="175"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="175"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6"/>
-      <c r="B14" s="175"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="175"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7"/>
@@ -4510,7 +4524,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="149" t="s">
@@ -4546,278 +4560,278 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="137"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="174"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="23"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="140"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="140"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="23"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="140"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="148"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="23"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="140"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="148"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="23"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="140"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="23"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="140"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="148"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="23"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="140"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="23"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="140"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="23"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="140"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="23"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="140"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="23"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="140"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="23"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="140"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="23"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="140"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="148"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="23"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="140"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="23"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="10"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="140"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="23"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="10"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="140"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="148"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="23"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="10"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="140"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="148"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="23"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="10"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="140"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="148"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="23"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="11"/>
-      <c r="B37" s="139"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="140"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="148"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="11"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="140"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="148"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="140"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="148"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="11"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="140"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="148"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="24"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="11"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="140"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="148"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="12"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="146"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="168"/>
       <c r="H42" s="12"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="13" t="s">
@@ -4830,72 +4844,72 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="144"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="165"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="144"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="165"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="142" t="s">
+      <c r="A46" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="144"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="165"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="142" t="s">
+      <c r="A47" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="144"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="165"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="142" t="s">
+      <c r="A48" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="144"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="165"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
@@ -4906,7 +4920,7 @@
       <c r="F49" s="158"/>
       <c r="G49" s="158"/>
       <c r="H49" s="158"/>
-      <c r="I49" s="22"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4"/>
@@ -4917,14 +4931,14 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6"/>
-      <c r="B51" s="135" t="s">
+      <c r="B51" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="135"/>
+      <c r="C51" s="159"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
@@ -4934,59 +4948,59 @@
       <c r="H51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I51" s="21"/>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="159"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="159"/>
+      <c r="B52" s="160"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
       <c r="E52" s="1"/>
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="161"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="162"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="148"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="148"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="19"/>
+      <c r="F53" s="98"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="140"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="148"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="148"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="148"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="146"/>
+      <c r="D54" s="146"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="19"/>
+      <c r="F54" s="98"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="140"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="148"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="148"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="148"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="146"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="19"/>
+      <c r="F55" s="98"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="141"/>
-      <c r="I55" s="140"/>
+      <c r="H55" s="147"/>
+      <c r="I55" s="148"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
@@ -4997,10 +5011,67 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="22"/>
+      <c r="I56" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="73">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="B55:D55"/>
@@ -5017,64 +5088,6 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/APIFinal/templates/various-form.xlsx
+++ b/APIFinal/templates/various-form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\API\APIFinal\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950EDFDC-4381-4F3A-B042-AB28FB4C4CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D177C1AA-2FB7-48BD-BD48-38ED09489F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1980" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAR" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>PROPERTY ACKNOWLEDGEMENT RECEIPT</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t xml:space="preserve">          1. Requisitioner c/o Property Custodian</t>
-  </si>
-  <si>
-    <t>_____</t>
   </si>
   <si>
     <t xml:space="preserve">          2. GSO</t>
@@ -1323,6 +1320,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,6 +1356,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,12 +1401,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1395,31 +1419,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,24 +1431,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,48 +1526,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1994,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2010,26 +2007,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="25" t="s">
@@ -2315,52 +2312,44 @@
       </c>
       <c r="E33" s="63"/>
       <c r="F33" s="63"/>
-      <c r="G33" s="64" t="s">
-        <v>24</v>
-      </c>
+      <c r="G33" s="64"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="59"/>
       <c r="B34" s="60"/>
       <c r="C34" s="61"/>
       <c r="D34" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="63"/>
       <c r="F34" s="63"/>
-      <c r="G34" s="64" t="s">
-        <v>24</v>
-      </c>
+      <c r="G34" s="64"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="103"/>
       <c r="D35" s="62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
-      <c r="G35" s="64" t="s">
-        <v>24</v>
-      </c>
+      <c r="G35" s="64"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="62"/>
       <c r="B36" s="95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="64"/>
       <c r="D36" s="62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="63"/>
       <c r="F36" s="63"/>
-      <c r="G36" s="64" t="s">
-        <v>24</v>
-      </c>
+      <c r="G36" s="64"/>
     </row>
     <row r="37" spans="1:7" ht="11.1" customHeight="1">
       <c r="A37" s="47"/>
@@ -2373,12 +2362,12 @@
     </row>
     <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="69"/>
       <c r="C38" s="70"/>
       <c r="D38" s="68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="69"/>
       <c r="F38" s="69"/>
@@ -2405,25 +2394,25 @@
     <row r="41" spans="1:7" ht="16.5">
       <c r="A41" s="73"/>
       <c r="B41" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="72"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="115"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="73"/>
       <c r="B42" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="72"/>
       <c r="D42" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
+        <v>33</v>
+      </c>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
       <c r="G42" s="72"/>
     </row>
     <row r="43" spans="1:7" ht="16.5">
@@ -2437,12 +2426,12 @@
     </row>
     <row r="44" spans="1:7" ht="16.5">
       <c r="A44" s="71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="72"/>
       <c r="D44" s="71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
@@ -2469,24 +2458,24 @@
     <row r="47" spans="1:7" ht="16.5">
       <c r="A47" s="73"/>
       <c r="B47" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" s="72"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="118"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="119"/>
     </row>
     <row r="48" spans="1:7" ht="16.5">
       <c r="A48" s="73"/>
       <c r="B48" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="72"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="110"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="111"/>
     </row>
     <row r="49" spans="1:7" ht="16.5">
       <c r="A49" s="73"/>
@@ -2547,7 +2536,7 @@
   <dimension ref="A2:J101"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2564,58 +2553,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+    </row>
+    <row r="5" spans="1:10" ht="18">
+      <c r="A5" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-    </row>
-    <row r="5" spans="1:10" ht="18">
-      <c r="A5" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:10" ht="18">
       <c r="A6" s="74"/>
@@ -2631,7 +2620,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -2645,7 +2634,7 @@
     </row>
     <row r="9" spans="1:10" ht="26.1" customHeight="1">
       <c r="A9" s="75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -2654,7 +2643,7 @@
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
       <c r="H9" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
@@ -2672,54 +2661,54 @@
       <c r="J10" s="75"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="C11" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="D11" s="122"/>
+      <c r="E11" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="126" t="s">
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="124" t="s">
+      <c r="J11" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="124" t="s">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="132"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="77" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="121"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="77" t="s">
+      <c r="D12" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="79"/>
       <c r="B13" s="79"/>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
     </row>
@@ -2728,10 +2717,10 @@
       <c r="B14" s="79"/>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
     </row>
@@ -2740,10 +2729,10 @@
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
       <c r="I15" s="79"/>
       <c r="J15" s="79"/>
     </row>
@@ -2752,10 +2741,10 @@
       <c r="B16" s="79"/>
       <c r="C16" s="80"/>
       <c r="D16" s="80"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
       <c r="I16" s="79"/>
       <c r="J16" s="79"/>
     </row>
@@ -2764,10 +2753,10 @@
       <c r="B17" s="79"/>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
       <c r="I17" s="79"/>
       <c r="J17" s="79"/>
     </row>
@@ -2776,10 +2765,10 @@
       <c r="B18" s="79"/>
       <c r="C18" s="80"/>
       <c r="D18" s="81"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
       <c r="I18" s="79"/>
       <c r="J18" s="79"/>
     </row>
@@ -2788,10 +2777,10 @@
       <c r="B19" s="79"/>
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
       <c r="I19" s="79"/>
       <c r="J19" s="79"/>
     </row>
@@ -2800,10 +2789,10 @@
       <c r="B20" s="79"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
       <c r="I20" s="79"/>
       <c r="J20" s="79"/>
     </row>
@@ -2812,10 +2801,10 @@
       <c r="B21" s="79"/>
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
       <c r="I21" s="79"/>
       <c r="J21" s="79"/>
     </row>
@@ -2824,10 +2813,10 @@
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
       <c r="I22" s="79"/>
       <c r="J22" s="79"/>
     </row>
@@ -2836,10 +2825,10 @@
       <c r="B23" s="79"/>
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
       <c r="I23" s="79"/>
       <c r="J23" s="79"/>
     </row>
@@ -2848,10 +2837,10 @@
       <c r="B24" s="79"/>
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
       <c r="I24" s="79"/>
       <c r="J24" s="79"/>
     </row>
@@ -2860,10 +2849,10 @@
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
       <c r="D25" s="80"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
       <c r="I25" s="79"/>
       <c r="J25" s="79"/>
     </row>
@@ -2872,10 +2861,10 @@
       <c r="B26" s="79"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
       <c r="I26" s="79"/>
       <c r="J26" s="79"/>
     </row>
@@ -2884,10 +2873,10 @@
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
       <c r="D27" s="80"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
       <c r="I27" s="79"/>
       <c r="J27" s="79"/>
     </row>
@@ -2896,10 +2885,10 @@
       <c r="B28" s="79"/>
       <c r="C28" s="80"/>
       <c r="D28" s="80"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
       <c r="I28" s="79"/>
       <c r="J28" s="79"/>
     </row>
@@ -2908,10 +2897,10 @@
       <c r="B29" s="79"/>
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
       <c r="I29" s="79"/>
       <c r="J29" s="79"/>
     </row>
@@ -2920,10 +2909,10 @@
       <c r="B30" s="79"/>
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
       <c r="I30" s="79"/>
       <c r="J30" s="79"/>
     </row>
@@ -2932,10 +2921,10 @@
       <c r="B31" s="79"/>
       <c r="C31" s="80"/>
       <c r="D31" s="80"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
       <c r="I31" s="79"/>
       <c r="J31" s="79"/>
     </row>
@@ -2944,10 +2933,10 @@
       <c r="B32" s="79"/>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
       <c r="I32" s="79"/>
       <c r="J32" s="79"/>
     </row>
@@ -2956,10 +2945,10 @@
       <c r="B33" s="79"/>
       <c r="C33" s="80"/>
       <c r="D33" s="80"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
       <c r="I33" s="79"/>
       <c r="J33" s="79"/>
     </row>
@@ -2968,10 +2957,10 @@
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
       <c r="I34" s="79"/>
       <c r="J34" s="79"/>
     </row>
@@ -2980,23 +2969,23 @@
       <c r="B35" s="82"/>
       <c r="C35" s="83"/>
       <c r="D35" s="83"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
       <c r="I35" s="82"/>
       <c r="J35" s="82"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="85"/>
       <c r="C36" s="85"/>
       <c r="D36" s="85"/>
       <c r="E36" s="86"/>
       <c r="F36" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="85"/>
       <c r="H36" s="85"/>
@@ -3029,32 +3018,32 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="87"/>
-      <c r="B39" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
+      <c r="B39" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="89"/>
       <c r="F39" s="88"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
       <c r="J39" s="89"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="87"/>
-      <c r="B40" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
+      <c r="B40" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
       <c r="E40" s="89"/>
       <c r="F40" s="88"/>
-      <c r="G40" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
+      <c r="G40" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
       <c r="J40" s="89"/>
     </row>
     <row r="41" spans="1:10">
@@ -3083,32 +3072,32 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="87"/>
-      <c r="B43" s="132" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
+      <c r="B43" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
       <c r="E43" s="89"/>
       <c r="F43" s="88"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
       <c r="J43" s="89"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="87"/>
-      <c r="B44" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
       <c r="E44" s="89"/>
       <c r="F44" s="88"/>
-      <c r="G44" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
+      <c r="G44" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
       <c r="J44" s="89"/>
     </row>
     <row r="45" spans="1:10">
@@ -3149,18 +3138,18 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="87"/>
-      <c r="B48" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
+      <c r="B48" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
       <c r="E48" s="89"/>
       <c r="F48" s="88"/>
-      <c r="G48" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
+      <c r="G48" s="130" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
       <c r="J48" s="89"/>
     </row>
     <row r="49" spans="1:10">
@@ -3801,33 +3790,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="A11:A12"/>
@@ -3844,6 +3806,33 @@
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.29921259842519687" footer="0.29921259842519687"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -3871,37 +3860,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="25.5">
-      <c r="A2" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="A2" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="A5" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="1:7">
       <c r="E6" s="25"/>
@@ -4076,7 +4065,7 @@
       <c r="B24" s="56"/>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
@@ -4089,7 +4078,7 @@
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="63"/>
       <c r="F25" s="63"/>
@@ -4102,7 +4091,7 @@
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="63"/>
       <c r="F26" s="63"/>
@@ -4161,12 +4150,12 @@
     </row>
     <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="69"/>
       <c r="C32" s="70"/>
       <c r="D32" s="68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="69"/>
       <c r="F32" s="69"/>
@@ -4191,26 +4180,26 @@
       <c r="G34" s="72"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="143"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="118"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="119"/>
     </row>
     <row r="36" spans="1:7" ht="16.5">
-      <c r="A36" s="141"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="141" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="142"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="144"/>
     </row>
     <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="47"/>
@@ -4223,12 +4212,12 @@
     </row>
     <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="72"/>
       <c r="D38" s="71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
@@ -4244,35 +4233,35 @@
       <c r="G39" s="72"/>
     </row>
     <row r="40" spans="1:7" ht="16.5">
-      <c r="A40" s="144"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="145"/>
+      <c r="A40" s="145"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="146"/>
       <c r="D40" s="73"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="72"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="144"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="143" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="118"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="119"/>
     </row>
     <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="73"/>
       <c r="B42" s="35"/>
       <c r="C42" s="72"/>
-      <c r="D42" s="141" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="142"/>
+      <c r="D42" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="144"/>
     </row>
     <row r="43" spans="1:7" ht="16.5">
       <c r="A43" s="47"/>
@@ -4303,16 +4292,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="A40:C41"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="A40:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4323,7 +4312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -4343,10 +4332,10 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="170" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="170"/>
+      <c r="H1" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
@@ -4360,17 +4349,17 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="171" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
+      <c r="A3" s="148" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="2"/>
@@ -4384,19 +4373,19 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4404,7 +4393,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4422,7 +4411,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4431,13 +4420,13 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="176"/>
+        <v>71</v>
+      </c>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4446,7 +4435,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="20"/>
     </row>
@@ -4463,7 +4452,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
@@ -4489,12 +4478,12 @@
       <c r="A13" s="6"/>
       <c r="B13" s="107"/>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="107"/>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4504,12 +4493,12 @@
       <c r="A14" s="6"/>
       <c r="B14" s="107"/>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="107"/>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4527,315 +4516,315 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="C16" s="168"/>
+      <c r="D16" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="163" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="153" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="151" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="150"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="152"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="166"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="174"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="151"/>
       <c r="H18" s="10"/>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="154"/>
       <c r="H19" s="10"/>
       <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="154"/>
       <c r="H20" s="10"/>
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="10"/>
       <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="148"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="10"/>
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="154"/>
       <c r="H23" s="10"/>
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="148"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="154"/>
       <c r="H24" s="10"/>
       <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="154"/>
       <c r="H25" s="10"/>
       <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="148"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="10"/>
       <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="154"/>
       <c r="H27" s="10"/>
       <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="154"/>
       <c r="H28" s="10"/>
       <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="154"/>
       <c r="H29" s="10"/>
       <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="154"/>
       <c r="H30" s="10"/>
       <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="154"/>
       <c r="H31" s="10"/>
       <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="148"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="154"/>
       <c r="H32" s="10"/>
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="10"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="148"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="154"/>
       <c r="H33" s="10"/>
       <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="10"/>
-      <c r="B34" s="166"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="148"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="10"/>
       <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="10"/>
-      <c r="B35" s="166"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="148"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="154"/>
       <c r="H35" s="10"/>
       <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="10"/>
-      <c r="B36" s="166"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="148"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="154"/>
       <c r="H36" s="10"/>
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="11"/>
-      <c r="B37" s="166"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="148"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="154"/>
       <c r="H37" s="11"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="11"/>
-      <c r="B38" s="166"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="148"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="154"/>
       <c r="H38" s="11"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11"/>
-      <c r="B39" s="166"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="148"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="154"/>
       <c r="H39" s="11"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="11"/>
-      <c r="B40" s="166"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="148"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="154"/>
       <c r="H40" s="11"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="11"/>
-      <c r="B41" s="166"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="148"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="154"/>
       <c r="H41" s="11"/>
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="12"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="168"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="160"/>
       <c r="H42" s="12"/>
       <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="5"/>
@@ -4847,79 +4836,79 @@
       <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="163" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="164"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="165"/>
+      <c r="A44" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="158"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="163" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="165"/>
+      <c r="A45" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="158"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="163" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="165"/>
+      <c r="A46" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="158"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="163" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="164"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="164"/>
-      <c r="I47" s="165"/>
+      <c r="A47" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="158"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="163" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="164"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="164"/>
-      <c r="F48" s="164"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="164"/>
-      <c r="I48" s="165"/>
+      <c r="A48" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="157"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="158"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="172"/>
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
@@ -4935,72 +4924,72 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6"/>
-      <c r="B51" s="159" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="159"/>
+      <c r="B51" s="173" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="173"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="160"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="160"/>
+        <v>85</v>
+      </c>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="1"/>
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="162"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="176"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="146"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="146"/>
+        <v>86</v>
+      </c>
+      <c r="B53" s="162"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="162"/>
       <c r="E53" s="1"/>
       <c r="F53" s="98"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="148"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="154"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="146"/>
-      <c r="C54" s="146"/>
-      <c r="D54" s="146"/>
+        <v>87</v>
+      </c>
+      <c r="B54" s="162"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="162"/>
       <c r="E54" s="1"/>
       <c r="F54" s="98"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="148"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="154"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="146"/>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
+        <v>88</v>
+      </c>
+      <c r="B55" s="162"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="162"/>
       <c r="E55" s="1"/>
       <c r="F55" s="98"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="148"/>
+      <c r="H55" s="155"/>
+      <c r="I55" s="154"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7"/>
@@ -5015,63 +5004,6 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="B55:D55"/>
@@ -5088,6 +5020,63 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
